--- a/metrics/R2/Retinopatía de fondo.xlsx
+++ b/metrics/R2/Retinopatía de fondo.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9871490797827501</v>
+        <v>0.9867844269505857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9872839789237571</v>
+        <v>0.9873573537775572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9873475023775287</v>
+        <v>0.9874545928961292</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9781535902476192</v>
+        <v>0.976546748513784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9784981411760955</v>
+        <v>0.9768045045736024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9765517222956225</v>
+        <v>0.9776880320400593</v>
       </c>
     </row>
   </sheetData>
